--- a/all_score.xlsx
+++ b/all_score.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,12 +437,12 @@
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
@@ -518,7 +518,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -529,77 +529,3775 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>950.38</v>
+        <v>1407.77</v>
       </c>
       <c r="E2" t="n">
-        <v>902.1</v>
+        <v>985.08</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-1</v>
+        <v>-0.9959</v>
       </c>
       <c r="H2" t="n">
         <v>-1</v>
       </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09789999999999999</v>
+        <v>0.0149</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>-0.097898</v>
+        <v>-0.014919</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>-0.09789999999999999</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>977.8200000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>962.03</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>-0.037968</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>-0.038</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>981.3099999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>960.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>-0.039991</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>976.33</v>
+      </c>
+      <c r="E5" t="n">
+        <v>954.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>-0.045992</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>-0.046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>943.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>935.6900000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.0643</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>-0.06430799999999999</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>-0.0643</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>951.4400000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>928.51</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.07150000000000001</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>-0.07148599999999999</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>-0.07150000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>951.73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>915.64</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.08439999999999999</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>-0.084358</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>-0.08439999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>952.75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>910.48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0.0895</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>-0.08952400000000001</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>-0.0895</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>924.21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>902.85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>-0.097149</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>-0.09710000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>950.38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>902.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0.09789999999999999</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>-0.097898</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>-0.09789999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>941.46</v>
+      </c>
+      <c r="E12" t="n">
+        <v>893.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0.1069</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>-0.106864</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>-0.1069</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>925.03</v>
+      </c>
+      <c r="E13" t="n">
+        <v>889.89</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.1101</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>-0.110108</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>-0.1101</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>928.83</v>
+      </c>
+      <c r="E14" t="n">
+        <v>879.96</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>-0.12004</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>912.24</v>
+      </c>
+      <c r="E15" t="n">
+        <v>871.52</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>-0.128479</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>-0.1285</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>68</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>922.54</v>
+      </c>
+      <c r="E16" t="n">
+        <v>871.28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0.1287</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>-0.128718</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>-0.1287</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>44</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>923.34</v>
+      </c>
+      <c r="E17" t="n">
+        <v>859.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0.1408</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>-0.140768</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>-0.1408</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>920.01</v>
+      </c>
+      <c r="E18" t="n">
+        <v>849.88</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>-0.15012</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>-0.1501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>902.79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>847.29</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>-0.152706</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>-0.1527</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>892.9400000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>810.99</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>-0.189013</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>-0.189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>43</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>879.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>787.95</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0.2121</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>-0.212054</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>-0.2121</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>868.23</v>
+      </c>
+      <c r="E22" t="n">
+        <v>772.62</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0.2274</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>-0.227377</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>-0.2274</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>830.59</v>
+      </c>
+      <c r="E23" t="n">
+        <v>771.35</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0.2287</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>-0.228654</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>-0.2287</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>845.3200000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>765.1799999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0.2348</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>-0.23482</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>-0.2348</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>871</v>
+      </c>
+      <c r="E25" t="n">
+        <v>761.6900000000001</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>0.2383</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>-0.238306</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>-0.2383</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>81</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>849.02</v>
+      </c>
+      <c r="E26" t="n">
+        <v>749.66</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0.2503</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>-0.250337</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>-0.2503</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>75</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>823.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>747.64</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="n">
+        <v>-0.252361</v>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>-0.2524</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>797.22</v>
+      </c>
+      <c r="E28" t="n">
+        <v>698.45</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.3015</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>-0.301547</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>-0.3015</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>810.7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>685.38</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0.3146</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>-0.314615</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>-0.3146</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>806.73</v>
+      </c>
+      <c r="E30" t="n">
+        <v>678.8200000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0.3212</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>-0.321182</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>-0.3212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>773.0599999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>669.73</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>-0.330271</v>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>-0.3303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>77</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>796.62</v>
+      </c>
+      <c r="E32" t="n">
+        <v>669.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>-0.330833</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>-0.3308</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>767.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>643.25</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>0.3568</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>-0.356752</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>-0.3568</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>72</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>761.74</v>
+      </c>
+      <c r="E34" t="n">
+        <v>641.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>-0.358799</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>-0.3588</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>30</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>778.52</v>
+      </c>
+      <c r="E35" t="n">
+        <v>637.26</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>-0.362739</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>-0.3627</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>766.51</v>
+      </c>
+      <c r="E36" t="n">
+        <v>626.36</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.3736</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>-0.373644</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>-0.3736</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>85</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>740.5700000000001</v>
+      </c>
+      <c r="E37" t="n">
+        <v>619.49</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>0.3804999999999999</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>-0.380509</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>-0.3804999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>680.54</v>
+      </c>
+      <c r="E38" t="n">
+        <v>609.98</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>-0.390018</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>739.62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>609.0700000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>0.3909</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="n">
+        <v>-0.3909320000000001</v>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>-0.3909</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>48</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>745.13</v>
+      </c>
+      <c r="E40" t="n">
+        <v>595.76</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>0.4042</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>-0.404236</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>-0.4042</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>18</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>722.29</v>
+      </c>
+      <c r="E41" t="n">
+        <v>590.34</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>0.4097</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>-0.409656</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>-0.4097</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
         <v>688.61</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E42" t="n">
         <v>586.65</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="2" t="n">
         <v>0.4133</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
+      <c r="K42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="n">
         <v>-0.413345</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M42" s="2" t="n">
         <v>-0.4133</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>723.6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>585.77</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>-0.414226</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>-0.4142</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>727.08</v>
+      </c>
+      <c r="E44" t="n">
+        <v>584.09</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>0.4159</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>-0.415911</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>-0.4159</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>61</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>718.92</v>
+      </c>
+      <c r="E45" t="n">
+        <v>573.98</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>-0.426022</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>-0.426</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>724.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>570.51</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>0.4295</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>-0.429493</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>-0.4295</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>705.9400000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>566.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>0.4337</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>-0.433699</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>-0.4337</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>29</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>716.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>563.53</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>0.4365</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>-0.436473</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>-0.4365</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>700.04</v>
+      </c>
+      <c r="E49" t="n">
+        <v>544.1799999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>0.4558</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>-0.455816</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>-0.4558</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>681.91</v>
+      </c>
+      <c r="E50" t="n">
+        <v>539.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>0.4605</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>-0.4605</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>-0.4605</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>686.26</v>
+      </c>
+      <c r="E51" t="n">
+        <v>522.34</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>0.4777</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>-0.477663</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>-0.4777</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>679.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>521.75</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>-0.478247</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>-0.4782</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>639.79</v>
+      </c>
+      <c r="E53" t="n">
+        <v>516.26</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.4837</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>-0.483742</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>-0.4837</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>671.92</v>
+      </c>
+      <c r="E54" t="n">
+        <v>502.57</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>0.4974</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>-0.497431</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>-0.4974</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>26</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>653.1900000000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>0.5077</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>-0.507699</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>-0.5077</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>40</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>643.71</v>
+      </c>
+      <c r="E56" t="n">
+        <v>483.31</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>0.5167</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>-0.516686</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>-0.5167</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>638.65</v>
+      </c>
+      <c r="E57" t="n">
+        <v>471.93</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.5281</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>-0.528072</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>-0.5281</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>24</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>625.89</v>
+      </c>
+      <c r="E58" t="n">
+        <v>470.87</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>0.5291</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>-0.529127</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>-0.5291</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>638.89</v>
+      </c>
+      <c r="E59" t="n">
+        <v>469.38</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0.5306000000000001</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>-0.530621</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>-0.5306000000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>15</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>604.47</v>
+      </c>
+      <c r="E60" t="n">
+        <v>468.57</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J60" s="2" t="n">
+        <v>0.5314</v>
+      </c>
+      <c r="K60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>-0.5314260000000001</v>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>-0.5314</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>28</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>621.08</v>
+      </c>
+      <c r="E61" t="n">
+        <v>462.97</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="K61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>-0.53703</v>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>-0.537</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>79</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>621.27</v>
+      </c>
+      <c r="E62" t="n">
+        <v>456.62</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>0.5434</v>
+      </c>
+      <c r="K62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="n">
+        <v>-0.543381</v>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>-0.5434</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>613.91</v>
+      </c>
+      <c r="E63" t="n">
+        <v>455.72</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>0.5443</v>
+      </c>
+      <c r="K63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>-0.5442750000000001</v>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>-0.5443</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>69</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>596.72</v>
+      </c>
+      <c r="E64" t="n">
+        <v>451.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>0.5483</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>-0.548305</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>-0.5483</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>618.46</v>
+      </c>
+      <c r="E65" t="n">
+        <v>449.29</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>0.5507</v>
+      </c>
+      <c r="K65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="n">
+        <v>-0.550709</v>
+      </c>
+      <c r="M65" s="2" t="n">
+        <v>-0.5507</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>600.3200000000001</v>
+      </c>
+      <c r="E66" t="n">
+        <v>447.82</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>0.5522</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>-0.5521820000000001</v>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>-0.5522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>47</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>625.3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>445.6</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J67" s="2" t="n">
+        <v>0.5544</v>
+      </c>
+      <c r="K67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="n">
+        <v>-0.5544</v>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>-0.5544</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>76</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>608.03</v>
+      </c>
+      <c r="E68" t="n">
+        <v>444.01</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="K68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="n">
+        <v>-0.555995</v>
+      </c>
+      <c r="M68" s="2" t="n">
+        <v>-0.556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>609.24</v>
+      </c>
+      <c r="E69" t="n">
+        <v>437.05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="K69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="n">
+        <v>-0.562952</v>
+      </c>
+      <c r="M69" s="2" t="n">
+        <v>-0.5629999999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>588.34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>428.17</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>0.5718</v>
+      </c>
+      <c r="K70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="n">
+        <v>-0.5718299999999999</v>
+      </c>
+      <c r="M70" s="2" t="n">
+        <v>-0.5718</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>567.99</v>
+      </c>
+      <c r="E71" t="n">
+        <v>398.81</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="K71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="n">
+        <v>-0.601193</v>
+      </c>
+      <c r="M71" s="2" t="n">
+        <v>-0.6012</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>565.78</v>
+      </c>
+      <c r="E72" t="n">
+        <v>375.44</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>0.6246</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="n">
+        <v>-0.624563</v>
+      </c>
+      <c r="M72" s="2" t="n">
+        <v>-0.6246</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>88</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>538.34</v>
+      </c>
+      <c r="E73" t="n">
+        <v>373.01</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="K73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="n">
+        <v>-0.626988</v>
+      </c>
+      <c r="M73" s="2" t="n">
+        <v>-0.627</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>537.84</v>
+      </c>
+      <c r="E74" t="n">
+        <v>369.77</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>0.6302</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2" t="n">
+        <v>-0.6302340000000001</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>-0.6302</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>486.38</v>
+      </c>
+      <c r="E75" t="n">
+        <v>358.33</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J75" s="2" t="n">
+        <v>0.6417</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2" t="n">
+        <v>-0.6416719999999999</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>-0.6417</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>518.53</v>
+      </c>
+      <c r="E76" t="n">
+        <v>349.81</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>0.6502</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2" t="n">
+        <v>-0.650194</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>-0.6502</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>66</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>504.83</v>
+      </c>
+      <c r="E77" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>0.6611</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="n">
+        <v>-0.661113</v>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>-0.6611</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>49</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>501.49</v>
+      </c>
+      <c r="E78" t="n">
+        <v>335.73</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>0.6643000000000001</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>-0.664269</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>-0.6643000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>454.35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>284.59</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>0.7154</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>-0.715408</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>-0.7154</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>423.28</v>
+      </c>
+      <c r="E80" t="n">
+        <v>269.62</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>0.7304</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>-0.7303839999999999</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>-0.7304</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>82</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>384.12</v>
+      </c>
+      <c r="E81" t="n">
+        <v>236.71</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>0.7633</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>-0.763292</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>-0.7633</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>74</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>374.07</v>
+      </c>
+      <c r="E82" t="n">
+        <v>231.18</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>0.7687999999999999</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>-0.768818</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>-0.7687999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>73</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>377.69</v>
+      </c>
+      <c r="E83" t="n">
+        <v>230.12</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>0.7698999999999999</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>-0.769885</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>-0.7698999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>225.75</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>0.7742</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>-0.774246</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>-0.7742</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>67</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>237.99</v>
+      </c>
+      <c r="E85" t="n">
+        <v>139.19</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>0.8608</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>-0.860808</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>-0.8608</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>87</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>212.77</v>
+      </c>
+      <c r="E86" t="n">
+        <v>121.09</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>0.8789</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>-0.8789090000000001</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>-0.8789</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>200.59</v>
+      </c>
+      <c r="E87" t="n">
+        <v>115.23</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>0.8848</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>-0.8847660000000001</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>-0.8848</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>71</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>148.73</v>
+      </c>
+      <c r="E88" t="n">
+        <v>82.16</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>0.9178000000000001</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>-0.9178409999999999</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>-0.9178000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>83</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>0.9972</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>-0.997182</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>-0.9972</v>
       </c>
     </row>
   </sheetData>
